--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02786293277316705</v>
+        <v>0.0278962546209451</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03674087613548035</v>
+        <v>0.03912307388557444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02959095111067003</v>
+        <v>0.02910781899830054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04609504270642496</v>
+        <v>0.04438120380857942</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08286486201792598</v>
+        <v>0.08334499382958047</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1239445960145594</v>
+        <v>0.1238877168445693</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09394738335726917</v>
+        <v>0.09384604728393235</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.11535926298549</v>
+        <v>0.1140624855991872</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0627196296978072</v>
+        <v>0.06276023918472906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09158499249116002</v>
+        <v>0.0915144627272929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07016185539471873</v>
+        <v>0.07047615327992048</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09083477864436976</v>
+        <v>0.09059153649759773</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05342204463494703</v>
+        <v>0.05362307949370903</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0671340010118178</v>
+        <v>0.06902644994825065</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05840287904458302</v>
+        <v>0.05908736421728081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08415310277663089</v>
+        <v>0.08512396589790575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1161407470076325</v>
+        <v>0.1153535883111391</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1634916319627434</v>
+        <v>0.1642896867015453</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1352440093688204</v>
+        <v>0.1345543760433383</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1512227218312248</v>
+        <v>0.1504669249551538</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0834831372119222</v>
+        <v>0.0835369823566038</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1182262857573787</v>
+        <v>0.1177460809295744</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09709355312082717</v>
+        <v>0.09736488050310929</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1184638192984857</v>
+        <v>0.118501330000188</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06155383320851956</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06879304640905769</v>
+        <v>0.06879304640905767</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02719991772332021</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006262944690410948</v>
+        <v>0.006444562428529233</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01782013615118765</v>
+        <v>0.01717534670650953</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01378318017362226</v>
+        <v>0.01309344503161026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02495083609104233</v>
+        <v>0.02477259086886608</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03613179492516347</v>
+        <v>0.03528597271729039</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04485956631473202</v>
+        <v>0.04448877644585006</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05062627152236584</v>
+        <v>0.0515015714287283</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05985256474549397</v>
+        <v>0.05922983269205889</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02186054835139372</v>
+        <v>0.02143261542863357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03275627315093139</v>
+        <v>0.03307851631530382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03346550042204856</v>
+        <v>0.03374535851557083</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04458390177628182</v>
+        <v>0.04422078844773181</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01627296395740841</v>
+        <v>0.01652696775541184</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03242425746154635</v>
+        <v>0.03250647376760257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02606689253003117</v>
+        <v>0.02511181219636124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04084784013872394</v>
+        <v>0.04065149821500299</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.057560941985044</v>
+        <v>0.0571145173797782</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06817680972320721</v>
+        <v>0.06621290956632261</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07321160868995753</v>
+        <v>0.07358055052616021</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07832610059120533</v>
+        <v>0.0783195202788589</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03362003055306954</v>
+        <v>0.03342109383648006</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04545110851998439</v>
+        <v>0.04597851406212983</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04649369709998352</v>
+        <v>0.04626153379780145</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05651590669573098</v>
+        <v>0.05641696333459843</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02647945843054095</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03801100966578315</v>
+        <v>0.03801100966578316</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0276277347293528</v>
@@ -969,7 +969,7 @@
         <v>0.01598852374889547</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02940765698005659</v>
+        <v>0.02940765698005658</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01054161273571743</v>
+        <v>0.01121987687583199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007919109315215616</v>
+        <v>0.007201391935963035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001623222214381779</v>
+        <v>0.001643681978228594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01149518260167488</v>
+        <v>0.01106561214174034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02135760150271373</v>
+        <v>0.02182976051227485</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01043549361837246</v>
+        <v>0.009882888485924776</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01485841872379898</v>
+        <v>0.0151527509945526</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02731312050949574</v>
+        <v>0.02661104306622016</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01890237867930815</v>
+        <v>0.01864823344318424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01139338034650957</v>
+        <v>0.01091119918208717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009498960303680483</v>
+        <v>0.009576761879004891</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02104849576050467</v>
+        <v>0.02182250651025922</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03425945996305326</v>
+        <v>0.03467375295479917</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04245375748069226</v>
+        <v>0.04240359795389149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01433138454196932</v>
+        <v>0.01553404529959853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03332010553710652</v>
+        <v>0.0336585087080781</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05695569832437149</v>
+        <v>0.05751018692503029</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04020571740733142</v>
+        <v>0.04056187841225334</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04405729720124339</v>
+        <v>0.04823688824760389</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05147958231070185</v>
+        <v>0.05098353328108551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04055144420741529</v>
+        <v>0.03935507565336692</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03420809178292004</v>
+        <v>0.03484617054379144</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02638643224858048</v>
+        <v>0.02602447546624671</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03854724524937152</v>
+        <v>0.03864884752359388</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07057739274950862</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07666041054124677</v>
+        <v>0.07666041054124678</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04331970597573254</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02534181037940297</v>
+        <v>0.02540346839829905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01720310134748663</v>
+        <v>0.017801585908237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02889568328233018</v>
+        <v>0.0286657191911671</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07398025681543115</v>
+        <v>0.07467728820707172</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06240355780711507</v>
+        <v>0.06168757356243588</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06995602519147527</v>
+        <v>0.06942589916210477</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05241082495813457</v>
+        <v>0.05247052718590074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04175086885107677</v>
+        <v>0.04134060143525923</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05186018168539662</v>
+        <v>0.0512539476331372</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03794051504626906</v>
+        <v>0.03832106760586216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02697311186382763</v>
+        <v>0.02777507589332096</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04097061728553751</v>
+        <v>0.04110402188927343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09337840326554782</v>
+        <v>0.09383441537863914</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08013159127429784</v>
+        <v>0.07941724597150225</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08425518369024361</v>
+        <v>0.08411852093177115</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06415257284561966</v>
+        <v>0.06429457801489365</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05214772643193055</v>
+        <v>0.05212633639118402</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06140870919039824</v>
+        <v>0.06087721478237169</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28747</v>
+        <v>28781</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35706</v>
+        <v>38021</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22322</v>
+        <v>21957</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26599</v>
+        <v>25610</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>108977</v>
+        <v>109608</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>165150</v>
+        <v>165074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>93446</v>
+        <v>93345</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>94570</v>
+        <v>93507</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>147193</v>
+        <v>147288</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>211038</v>
+        <v>210875</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>122714</v>
+        <v>123263</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>126881</v>
+        <v>126541</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55117</v>
+        <v>55324</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65243</v>
+        <v>67082</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44056</v>
+        <v>44572</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48560</v>
+        <v>49121</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>152738</v>
+        <v>151703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>217844</v>
+        <v>218907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>134522</v>
+        <v>133836</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>123970</v>
+        <v>123351</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>195921</v>
+        <v>196048</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>272427</v>
+        <v>271320</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>169817</v>
+        <v>170292</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>165474</v>
+        <v>165526</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10599</v>
+        <v>10907</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34909</v>
+        <v>33646</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28619</v>
+        <v>27187</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55654</v>
+        <v>55257</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>57365</v>
+        <v>56023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>78622</v>
+        <v>77973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>100660</v>
+        <v>102401</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>129922</v>
+        <v>128571</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71704</v>
+        <v>70300</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>121579</v>
+        <v>122775</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>136027</v>
+        <v>137164</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>196226</v>
+        <v>194628</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27540</v>
+        <v>27970</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63519</v>
+        <v>63680</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54125</v>
+        <v>52142</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>91114</v>
+        <v>90676</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>91388</v>
+        <v>90679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119489</v>
+        <v>116047</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>145567</v>
+        <v>146300</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>170023</v>
+        <v>170009</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>110276</v>
+        <v>109623</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>168697</v>
+        <v>170655</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>188982</v>
+        <v>188039</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>248742</v>
+        <v>248307</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5813</v>
+        <v>6187</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3804</v>
+        <v>3459</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8180</v>
+        <v>7874</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10175</v>
+        <v>10400</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4776</v>
+        <v>4523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8159</v>
+        <v>8321</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20072</v>
+        <v>19556</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19428</v>
+        <v>19167</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10687</v>
+        <v>10235</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10411</v>
+        <v>10496</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>30446</v>
+        <v>31565</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18891</v>
+        <v>19119</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20392</v>
+        <v>20368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7838</v>
+        <v>8495</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23710</v>
+        <v>23951</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27134</v>
+        <v>27399</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18400</v>
+        <v>18563</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24194</v>
+        <v>26489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37831</v>
+        <v>37467</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>41680</v>
+        <v>40450</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32087</v>
+        <v>32685</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28920</v>
+        <v>28524</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55757</v>
+        <v>55904</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86445</v>
+        <v>86655</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58106</v>
+        <v>60127</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101690</v>
+        <v>100880</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>262093</v>
+        <v>264562</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>220416</v>
+        <v>217887</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>260612</v>
+        <v>258637</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>364459</v>
+        <v>364874</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>288487</v>
+        <v>285652</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>375705</v>
+        <v>371313</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>129421</v>
+        <v>130719</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91105</v>
+        <v>93814</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144184</v>
+        <v>144653</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>330815</v>
+        <v>332431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>283033</v>
+        <v>280510</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>313882</v>
+        <v>313373</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>446110</v>
+        <v>447097</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>360326</v>
+        <v>360178</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>444880</v>
+        <v>441029</v>
       </c>
     </row>
     <row r="20">
